--- a/3d print feeder/max/cutter.xlsx
+++ b/3d print feeder/max/cutter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\3d print feeder\max\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB166016-ED96-4F94-B948-07245D13FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14F8E0-493A-452B-B9EF-DABC059CC642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>https://www.ozon.ru/product/nabor-iz-3-h-rezinok-dlya-rolikov-zahvata-bumagi-dlya-kyocera-fs-ecosys-taskalfa-series-1102014724/?at=46tRZN71rh2Nz7wniv6VxPktvAZ2AWFD9qOJ4T8B7wEx</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>https://www.ozon.ru/product/podshipnik-opornyy-flantsevyy-kfl08-8mm-2-shtuki-447647490/?at=x6tPp6R0mFgvn1MMhXQgxGji6QOQ6Mix5qB5nHRKAj2B</t>
+  </si>
+  <si>
+    <t>Блок питания (12–24 В, в зависимости от двигателя)</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/zapasnye-chasti-dlya-audiotehniki-komplekt-arduino-uno-dlya-sozdaniya-3d-printera-chpu-stanka-s-1636936839/?reviewsVariantMode=2</t>
+  </si>
+  <si>
+    <t>Запасные части для аудиотехники Комплект Arduino UNO для создания 3D принтера / ЧПУ станка с драйверами A4988 и USB кабелем (У)</t>
+  </si>
+  <si>
+    <t>Подшипник 628 2RS (8-24-8 мм) Россия</t>
+  </si>
+  <si>
+    <t>https://www.ozon.ru/product/podshipnik-628-2rs-8-24-8-mm-rossiya-2043884781/?at=79tnr52vNfxJw65wT3Z21XvFPo2kOqSpE23zGTEDwjPL</t>
   </si>
 </sst>
 </file>
@@ -143,10 +158,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +472,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -478,15 +496,15 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -528,6 +546,27 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +577,11 @@
     <hyperlink ref="B11" r:id="rId4" xr:uid="{D702766F-303B-46D0-838F-22692F7486C3}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{B325A930-5CB5-47AB-864E-D0B8B5A2A6C5}"/>
     <hyperlink ref="B12" r:id="rId6" xr:uid="{6CBA3C12-0967-4518-AABF-B930B4B034F1}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{17F5F8EB-89E4-40C8-A272-55A0DE9CA023}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{22B89564-633A-4A95-900B-F5313D4A4405}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{BB05C83D-1532-4AFC-8479-1728574AA2BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
 </worksheet>
 </file>